--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Sample_Plate.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Sample_Plate.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="486">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -305,6 +305,18 @@
     <t xml:space="preserve">D04</t>
   </si>
   <si>
+    <t xml:space="preserve">Sample17NormPlanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample18NormPlanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normalization Planning template instructions</t>
   </si>
   <si>
@@ -459,9 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E01</t>
   </si>
   <si>
     <t xml:space="preserve">A06</t>
@@ -523,9 +532,6 @@
       </rPr>
       <t xml:space="preserve">01</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">E02</t>
   </si>
   <si>
     <t xml:space="preserve">A13</t>
@@ -2661,35 +2667,93 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L13" s="14"/>
-      <c r="Q13" s="0" t="str">
-        <f aca="false">IF(AND($O13&lt;&gt;"",$P13&lt;&gt;""), $O13*$P13, "")</f>
-        <v/>
+      <c r="O13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L14" s="14"/>
-      <c r="Q14" s="0" t="str">
-        <f aca="false">IF(AND($O14&lt;&gt;"",$P14&lt;&gt;""), $O14*$P14, "")</f>
-        <v/>
+      <c r="O14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14769,49 +14833,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14820,7 +14884,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C13" s="20"/>
     </row>
@@ -14829,7 +14893,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C14" s="20"/>
     </row>
@@ -14838,7 +14902,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="20"/>
     </row>
@@ -14847,7 +14911,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" s="20"/>
     </row>
@@ -14856,7 +14920,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C17" s="20"/>
     </row>
@@ -14865,7 +14929,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" s="20"/>
     </row>
@@ -14874,7 +14938,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19" s="20"/>
     </row>
@@ -14883,7 +14947,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" s="20"/>
     </row>
@@ -14892,7 +14956,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="20"/>
     </row>
@@ -14901,7 +14965,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="20"/>
     </row>
@@ -14910,7 +14974,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -14919,7 +14983,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="20"/>
     </row>
@@ -14928,7 +14992,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="20"/>
     </row>
@@ -14937,7 +15001,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C26" s="20"/>
     </row>
@@ -14946,7 +15010,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" s="20"/>
     </row>
@@ -14955,7 +15019,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C28" s="20"/>
     </row>
@@ -14964,7 +15028,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29" s="20"/>
     </row>
@@ -14973,7 +15037,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C30" s="20"/>
     </row>
@@ -14982,7 +15046,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -14991,7 +15055,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -15000,7 +15064,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -15045,7 +15109,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>9</v>
@@ -15054,22 +15118,22 @@
         <v>10</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>3</v>
@@ -15080,31 +15144,31 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>4</v>
@@ -15115,19 +15179,19 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>37</v>
@@ -15142,7 +15206,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15151,19 +15215,19 @@
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>41</v>
@@ -15173,16 +15237,16 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="E5" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>44</v>
@@ -15192,114 +15256,114 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="F6" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15307,13 +15371,13 @@
         <v>35</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15321,52 +15385,52 @@
         <v>39</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>37</v>
@@ -15374,13 +15438,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>39</v>
@@ -15388,13 +15452,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>42</v>
@@ -15402,13 +15466,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F21" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>47</v>
@@ -15416,58 +15480,58 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F22" s="24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F23" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F24" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F25" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15475,13 +15539,13 @@
         <v>41</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15489,150 +15553,150 @@
         <v>42</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F28" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F29" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F31" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F33" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F34" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F35" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F36" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F37" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I37" s="24" t="s">
         <v>49</v>
@@ -15643,13 +15707,13 @@
         <v>44</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15657,13 +15721,13 @@
         <v>47</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15671,13 +15735,13 @@
         <v>49</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15685,178 +15749,178 @@
         <v>51</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F42" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F43" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F44" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F45" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F46" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F47" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F48" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F49" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F50" s="24" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>41</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F51" s="24" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>42</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F52" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F53" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>51</v>
@@ -15864,3498 +15928,3498 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F54" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F55" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F56" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F57" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F58" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F59" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F60" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F61" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F62" s="24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F63" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F64" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F65" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F66" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F67" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F68" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F69" s="24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F70" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F71" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G71" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="G71" s="24" t="s">
-        <v>239</v>
-      </c>
       <c r="H71" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F72" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F73" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I73" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F74" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H74" s="24" t="s">
         <v>44</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F75" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H75" s="24" t="s">
         <v>47</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F76" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H76" s="24" t="s">
         <v>49</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F77" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H77" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F78" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I78" s="24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F79" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I79" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F80" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F81" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I81" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F82" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F83" s="24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F84" s="24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I84" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F85" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I85" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F86" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I86" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F87" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F88" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F89" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F90" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I90" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F91" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F92" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F93" s="24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F94" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I94" s="24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F95" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F96" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F97" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="I98" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I100" s="24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
       <c r="H102" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
       <c r="H103" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
       <c r="H106" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
       <c r="H107" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I110" s="24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
       <c r="H112" s="24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I112" s="24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
       <c r="H113" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
       <c r="H118" s="24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I118" s="24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F122" s="24"/>
       <c r="G122" s="24"/>
       <c r="H122" s="24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I122" s="24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
       <c r="H123" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I123" s="24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
       <c r="H124" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I124" s="24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
       <c r="H125" s="24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
       <c r="H126" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
       <c r="H127" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
       <c r="H128" s="24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F130" s="24"/>
       <c r="G130" s="24"/>
       <c r="H130" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F132" s="24"/>
       <c r="G132" s="24"/>
       <c r="H132" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F134" s="24"/>
       <c r="G134" s="24"/>
       <c r="H134" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F135" s="24"/>
       <c r="G135" s="24"/>
       <c r="H135" s="24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F136" s="24"/>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F137" s="24"/>
       <c r="G137" s="24"/>
       <c r="H137" s="24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F138" s="24"/>
       <c r="G138" s="24"/>
       <c r="H138" s="24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F139" s="24"/>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F140" s="24"/>
       <c r="G140" s="24"/>
       <c r="H140" s="24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
       <c r="H141" s="24" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I141" s="25" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F142" s="24"/>
       <c r="G142" s="24"/>
       <c r="H142" s="24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F143" s="24"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F144" s="24"/>
       <c r="G144" s="24"/>
       <c r="H144" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F145" s="24"/>
       <c r="G145" s="24"/>
       <c r="H145" s="24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F146" s="24"/>
       <c r="G146" s="24"/>
       <c r="H146" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F147" s="24"/>
       <c r="G147" s="24"/>
       <c r="H147" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I147" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
       <c r="H148" s="24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I148" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
       <c r="H149" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F150" s="24"/>
       <c r="G150" s="24"/>
       <c r="H150" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F151" s="24"/>
       <c r="G151" s="24"/>
       <c r="H151" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I151" s="24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F152" s="24"/>
       <c r="G152" s="24"/>
       <c r="H152" s="24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F153" s="24"/>
       <c r="G153" s="24"/>
       <c r="H153" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I153" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
       <c r="H154" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
       <c r="H155" s="24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I155" s="24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
       <c r="H156" s="24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
       <c r="H157" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
       <c r="H158" s="24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
       <c r="H159" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
       <c r="H160" s="24" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
       <c r="H161" s="24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
       <c r="H164" s="24" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
       <c r="H165" s="24" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
       <c r="H167" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F168" s="24"/>
       <c r="G168" s="24"/>
       <c r="H168" s="24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F169" s="24"/>
       <c r="G169" s="24"/>
       <c r="H169" s="24" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F170" s="24"/>
       <c r="G170" s="24"/>
       <c r="H170" s="24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F171" s="24"/>
       <c r="G171" s="24"/>
       <c r="H171" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F172" s="24"/>
       <c r="G172" s="24"/>
       <c r="H172" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F173" s="24"/>
       <c r="G173" s="24"/>
       <c r="H173" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F174" s="24"/>
       <c r="G174" s="24"/>
       <c r="H174" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F175" s="24"/>
       <c r="G175" s="24"/>
       <c r="H175" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I175" s="24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F176" s="24"/>
       <c r="G176" s="24"/>
       <c r="H176" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F177" s="24"/>
       <c r="G177" s="24"/>
       <c r="H177" s="24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F178" s="24"/>
       <c r="G178" s="24"/>
       <c r="H178" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F179" s="24"/>
       <c r="G179" s="24"/>
       <c r="H179" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F180" s="24"/>
       <c r="G180" s="24"/>
       <c r="H180" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I180" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F181" s="24"/>
       <c r="G181" s="24"/>
       <c r="H181" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I181" s="24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F182" s="24"/>
       <c r="G182" s="24"/>
       <c r="H182" s="24" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F183" s="24"/>
       <c r="G183" s="24"/>
       <c r="H183" s="24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F184" s="24"/>
       <c r="G184" s="24"/>
       <c r="H184" s="24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
       <c r="H185" s="24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F186" s="24"/>
       <c r="G186" s="24"/>
       <c r="H186" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I186" s="24" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F187" s="24"/>
       <c r="G187" s="24"/>
       <c r="H187" s="24" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I187" s="24" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F188" s="24"/>
       <c r="G188" s="24"/>
       <c r="H188" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F189" s="24"/>
       <c r="G189" s="24"/>
       <c r="H189" s="24" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I189" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F190" s="24"/>
       <c r="G190" s="24"/>
       <c r="H190" s="24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I190" s="24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F191" s="24"/>
       <c r="G191" s="24"/>
       <c r="H191" s="24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F192" s="24"/>
       <c r="G192" s="24"/>
       <c r="H192" s="24" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F193" s="24"/>
       <c r="G193" s="24"/>
       <c r="H193" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F194" s="24"/>
       <c r="G194" s="24"/>
       <c r="H194" s="24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I194" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F195" s="24"/>
       <c r="G195" s="24"/>
       <c r="H195" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I195" s="24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F196" s="24"/>
       <c r="G196" s="24"/>
       <c r="H196" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I196" s="24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F197" s="24"/>
       <c r="G197" s="24"/>
       <c r="H197" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F198" s="24"/>
       <c r="G198" s="24"/>
       <c r="H198" s="24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I198" s="24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="24"/>
       <c r="G199" s="24"/>
       <c r="H199" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I199" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F200" s="24"/>
       <c r="G200" s="24"/>
       <c r="H200" s="24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F201" s="24"/>
       <c r="G201" s="24"/>
       <c r="H201" s="24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I201" s="24" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F202" s="24"/>
       <c r="G202" s="24"/>
       <c r="H202" s="24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I202" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F203" s="24"/>
       <c r="G203" s="24"/>
       <c r="H203" s="24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I203" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F204" s="24"/>
       <c r="G204" s="24"/>
       <c r="H204" s="24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I204" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F205" s="24"/>
       <c r="G205" s="24"/>
       <c r="H205" s="24" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I205" s="24" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F206" s="24"/>
       <c r="G206" s="24"/>
       <c r="H206" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I206" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F207" s="24"/>
       <c r="G207" s="24"/>
       <c r="H207" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I207" s="24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F208" s="24"/>
       <c r="G208" s="24"/>
       <c r="H208" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I208" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F209" s="24"/>
       <c r="G209" s="24"/>
       <c r="H209" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I209" s="24" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F210" s="24"/>
       <c r="G210" s="24"/>
       <c r="H210" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I210" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F211" s="24"/>
       <c r="G211" s="24"/>
       <c r="H211" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I211" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F212" s="24"/>
       <c r="G212" s="24"/>
       <c r="H212" s="24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I212" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F213" s="24"/>
       <c r="G213" s="24"/>
       <c r="H213" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I213" s="24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F214" s="24"/>
       <c r="G214" s="24"/>
       <c r="H214" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I214" s="24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I215" s="24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I216" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F217" s="24"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I217" s="24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F218" s="24"/>
       <c r="G218" s="24"/>
       <c r="H218" s="24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I218" s="24" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F219" s="24"/>
       <c r="G219" s="24"/>
       <c r="H219" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I219" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F220" s="24"/>
       <c r="G220" s="24"/>
       <c r="H220" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I220" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F221" s="24"/>
       <c r="G221" s="24"/>
       <c r="H221" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I221" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F222" s="24"/>
       <c r="G222" s="24"/>
       <c r="H222" s="24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I222" s="24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F223" s="24"/>
       <c r="G223" s="24"/>
       <c r="H223" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I223" s="24" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F224" s="24"/>
       <c r="G224" s="24"/>
       <c r="H224" s="24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I224" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F225" s="24"/>
       <c r="G225" s="24"/>
       <c r="H225" s="24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I225" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F226" s="24"/>
       <c r="G226" s="24"/>
       <c r="H226" s="24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I226" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F227" s="24"/>
       <c r="G227" s="24"/>
       <c r="H227" s="24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I227" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F228" s="24"/>
       <c r="G228" s="24"/>
       <c r="H228" s="24" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I228" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F229" s="24"/>
       <c r="G229" s="24"/>
       <c r="H229" s="24" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I229" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F230" s="24"/>
       <c r="G230" s="24"/>
       <c r="H230" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I230" s="24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F231" s="24"/>
       <c r="G231" s="24"/>
       <c r="H231" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I231" s="24" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F232" s="24"/>
       <c r="G232" s="24"/>
       <c r="H232" s="24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I232" s="24" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F233" s="24"/>
       <c r="G233" s="24"/>
       <c r="H233" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I233" s="24" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F234" s="24"/>
       <c r="G234" s="24"/>
       <c r="H234" s="24" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I234" s="24" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F235" s="24"/>
       <c r="G235" s="24"/>
       <c r="H235" s="24" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I235" s="24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F236" s="24"/>
       <c r="G236" s="24"/>
       <c r="H236" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I236" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F237" s="24"/>
       <c r="G237" s="24"/>
       <c r="H237" s="24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I237" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F238" s="24"/>
       <c r="G238" s="24"/>
       <c r="H238" s="24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I238" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F239" s="24"/>
       <c r="G239" s="24"/>
       <c r="H239" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I239" s="24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F240" s="24"/>
       <c r="G240" s="24"/>
       <c r="H240" s="24" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I240" s="24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F241" s="24"/>
       <c r="G241" s="24"/>
       <c r="H241" s="24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I241" s="24" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F242" s="24"/>
       <c r="G242" s="24"/>
       <c r="H242" s="24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I242" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F243" s="24"/>
       <c r="G243" s="24"/>
       <c r="H243" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I243" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F244" s="24"/>
       <c r="G244" s="24"/>
       <c r="H244" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I244" s="24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F245" s="24"/>
       <c r="G245" s="24"/>
       <c r="H245" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I245" s="24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F246" s="24"/>
       <c r="G246" s="24"/>
       <c r="H246" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I246" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F247" s="24"/>
       <c r="G247" s="24"/>
       <c r="H247" s="24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I247" s="24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F248" s="24"/>
       <c r="G248" s="24"/>
       <c r="H248" s="24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I248" s="24" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F249" s="24"/>
       <c r="G249" s="24"/>
       <c r="H249" s="24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I249" s="24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F250" s="24"/>
       <c r="G250" s="24"/>
       <c r="H250" s="24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I250" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F251" s="24"/>
       <c r="G251" s="24"/>
       <c r="H251" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I251" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F252" s="24"/>
       <c r="G252" s="24"/>
       <c r="H252" s="24" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I252" s="24" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F253" s="24"/>
       <c r="G253" s="24"/>
       <c r="H253" s="24" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I253" s="24" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F254" s="24"/>
       <c r="G254" s="24"/>
       <c r="H254" s="24" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I254" s="24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F255" s="24"/>
       <c r="G255" s="24"/>
       <c r="H255" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I255" s="24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F256" s="24"/>
       <c r="G256" s="24"/>
       <c r="H256" s="24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I256" s="24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F257" s="24"/>
       <c r="G257" s="24"/>
       <c r="H257" s="24" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I257" s="24" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F258" s="24"/>
       <c r="G258" s="24"/>
       <c r="H258" s="24" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I258" s="24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F259" s="24"/>
       <c r="G259" s="24"/>
       <c r="H259" s="24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I259" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F260" s="24"/>
       <c r="G260" s="24"/>
       <c r="H260" s="24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I260" s="24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F261" s="24"/>
       <c r="G261" s="24"/>
       <c r="H261" s="24" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I261" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F262" s="24"/>
       <c r="G262" s="24"/>
       <c r="H262" s="24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I262" s="24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F263" s="24"/>
       <c r="G263" s="24"/>
       <c r="H263" s="24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I263" s="24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F264" s="24"/>
       <c r="G264" s="24"/>
       <c r="H264" s="24" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I264" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F265" s="24"/>
       <c r="G265" s="24"/>
       <c r="H265" s="24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I265" s="24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F266" s="24"/>
       <c r="G266" s="24"/>
       <c r="H266" s="24" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I266" s="24" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F267" s="24"/>
       <c r="G267" s="24"/>
       <c r="H267" s="24" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I267" s="24" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F268" s="24"/>
       <c r="G268" s="24"/>
       <c r="H268" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I268" s="24" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F269" s="24"/>
       <c r="G269" s="24"/>
       <c r="H269" s="24" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I269" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F270" s="24"/>
       <c r="G270" s="24"/>
       <c r="H270" s="24" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I270" s="24" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F271" s="24"/>
       <c r="G271" s="24"/>
       <c r="H271" s="24" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I271" s="24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F272" s="24"/>
       <c r="G272" s="24"/>
       <c r="H272" s="24" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I272" s="24" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F273" s="24"/>
       <c r="G273" s="24"/>
       <c r="H273" s="24" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I273" s="24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F274" s="24"/>
       <c r="G274" s="24"/>
       <c r="H274" s="24" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I274" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F275" s="24"/>
       <c r="G275" s="24"/>
       <c r="H275" s="24" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I275" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F276" s="24"/>
       <c r="G276" s="24"/>
       <c r="H276" s="24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I276" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F277" s="24"/>
       <c r="G277" s="24"/>
       <c r="H277" s="24" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I277" s="24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F278" s="24"/>
       <c r="G278" s="24"/>
       <c r="H278" s="24" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I278" s="24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F279" s="24"/>
       <c r="G279" s="24"/>
       <c r="H279" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I279" s="24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F280" s="24"/>
       <c r="G280" s="24"/>
       <c r="H280" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I280" s="24" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F281" s="24"/>
       <c r="G281" s="24"/>
       <c r="H281" s="24" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F282" s="24"/>
       <c r="G282" s="24"/>
       <c r="H282" s="24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F283" s="24"/>
       <c r="G283" s="24"/>
       <c r="H283" s="24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I283" s="24" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F284" s="24"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I284" s="24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F285" s="24"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="I285" s="24" t="s">
         <v>451</v>
-      </c>
-      <c r="I285" s="24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F286" s="24"/>
       <c r="G286" s="24"/>
       <c r="H286" s="24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I286" s="24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F287" s="24"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I287" s="24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F288" s="24"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I288" s="24" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F289" s="24"/>
       <c r="G289" s="24"/>
       <c r="H289" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F290" s="24"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I290" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F291" s="24"/>
       <c r="G291" s="24"/>
       <c r="H291" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I291" s="24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F292" s="24"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I292" s="24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F293" s="24"/>
       <c r="G293" s="24"/>
       <c r="H293" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I293" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F294" s="24"/>
       <c r="G294" s="24"/>
       <c r="H294" s="24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I294" s="24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F295" s="24"/>
       <c r="G295" s="24"/>
       <c r="H295" s="24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I295" s="24" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F296" s="24"/>
       <c r="G296" s="24"/>
       <c r="H296" s="24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I296" s="24" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F297" s="24"/>
       <c r="G297" s="24"/>
       <c r="H297" s="24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I297" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F298" s="24"/>
       <c r="G298" s="24"/>
       <c r="H298" s="24" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F299" s="24"/>
       <c r="G299" s="24"/>
       <c r="H299" s="24" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I299" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F300" s="24"/>
       <c r="G300" s="24"/>
       <c r="H300" s="24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I300" s="24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F301" s="24"/>
       <c r="G301" s="24"/>
       <c r="H301" s="24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I301" s="24" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F302" s="24"/>
       <c r="G302" s="24"/>
       <c r="H302" s="24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I302" s="24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F303" s="24"/>
       <c r="G303" s="24"/>
       <c r="H303" s="24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I303" s="24" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F304" s="24"/>
       <c r="G304" s="24"/>
       <c r="H304" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I304" s="24" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F305" s="24"/>
       <c r="G305" s="24"/>
       <c r="H305" s="24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I305" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F306" s="24"/>
       <c r="G306" s="24"/>
       <c r="H306" s="24" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I306" s="24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F307" s="24"/>
       <c r="G307" s="24"/>
       <c r="H307" s="24" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I307" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F308" s="24"/>
       <c r="G308" s="24"/>
       <c r="H308" s="24" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I308" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F309" s="24"/>
       <c r="G309" s="24"/>
       <c r="H309" s="24" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I309" s="24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F310" s="24"/>
       <c r="G310" s="24"/>
       <c r="H310" s="24" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I310" s="24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F311" s="24"/>
       <c r="G311" s="24"/>
       <c r="H311" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I311" s="24" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F312" s="24"/>
       <c r="G312" s="24"/>
       <c r="H312" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I312" s="24" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F313" s="24"/>
       <c r="G313" s="24"/>
       <c r="H313" s="24" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I313" s="24" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F314" s="24"/>
       <c r="G314" s="24"/>
       <c r="H314" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I314" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F315" s="24"/>
       <c r="G315" s="24"/>
       <c r="H315" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I315" s="24" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F316" s="24"/>
       <c r="G316" s="24"/>
       <c r="H316" s="24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I316" s="24" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F317" s="24"/>
       <c r="G317" s="24"/>
       <c r="H317" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I317" s="24" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F318" s="24"/>
       <c r="G318" s="24"/>
       <c r="H318" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I318" s="24" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F319" s="24"/>
       <c r="G319" s="24"/>
       <c r="H319" s="24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I319" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F320" s="24"/>
       <c r="G320" s="24"/>
       <c r="H320" s="24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I320" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F321" s="24"/>
       <c r="G321" s="24"/>
       <c r="H321" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I321" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F322" s="24"/>
       <c r="G322" s="24"/>
       <c r="H322" s="24" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I322" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F323" s="24"/>
       <c r="G323" s="24"/>
       <c r="H323" s="24" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I323" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F324" s="24"/>
       <c r="G324" s="24"/>
       <c r="H324" s="24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I324" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F325" s="24"/>
       <c r="G325" s="24"/>
       <c r="H325" s="24" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I325" s="24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F326" s="24"/>
       <c r="G326" s="24"/>
       <c r="H326" s="24" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I326" s="24" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F327" s="24"/>
       <c r="G327" s="24"/>
       <c r="H327" s="24" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I327" s="24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F328" s="24"/>
       <c r="G328" s="24"/>
       <c r="H328" s="24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I328" s="24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F329" s="24"/>
       <c r="G329" s="24"/>
       <c r="H329" s="24" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I329" s="24" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F330" s="24"/>
       <c r="G330" s="24"/>
       <c r="H330" s="24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I330" s="24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F331" s="24"/>
       <c r="G331" s="24"/>
       <c r="H331" s="24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I331" s="24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F332" s="24"/>
       <c r="G332" s="24"/>
       <c r="H332" s="24" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I332" s="24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F333" s="24"/>
       <c r="G333" s="24"/>
       <c r="H333" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I333" s="24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F334" s="24"/>
       <c r="G334" s="24"/>
       <c r="H334" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I334" s="24" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F335" s="24"/>
       <c r="G335" s="24"/>
       <c r="H335" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I335" s="24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F336" s="24"/>
       <c r="G336" s="24"/>
       <c r="H336" s="24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I336" s="24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F337" s="24"/>
       <c r="G337" s="24"/>
       <c r="H337" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I337" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F338" s="24"/>
       <c r="G338" s="24"/>
       <c r="H338" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I338" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F339" s="24"/>
       <c r="G339" s="24"/>
       <c r="H339" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I339" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F340" s="24"/>
       <c r="G340" s="24"/>
       <c r="H340" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I340" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F341" s="24"/>
       <c r="G341" s="24"/>
       <c r="H341" s="24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I341" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F342" s="24"/>
       <c r="G342" s="24"/>
       <c r="H342" s="24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I342" s="24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F343" s="24"/>
       <c r="G343" s="24"/>
       <c r="H343" s="24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I343" s="24" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F344" s="24"/>
       <c r="G344" s="24"/>
       <c r="H344" s="24" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I344" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F345" s="24"/>
       <c r="G345" s="24"/>
       <c r="H345" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I345" s="24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F346" s="24"/>
       <c r="G346" s="24"/>
       <c r="H346" s="24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I346" s="24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F347" s="24"/>
       <c r="G347" s="24"/>
       <c r="H347" s="24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I347" s="24" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F348" s="24"/>
       <c r="G348" s="24"/>
       <c r="H348" s="24" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I348" s="24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F349" s="24"/>
       <c r="G349" s="24"/>
       <c r="H349" s="24" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I349" s="24" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F350" s="24"/>
       <c r="G350" s="24"/>
       <c r="H350" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I350" s="24" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F351" s="24"/>
       <c r="G351" s="24"/>
       <c r="H351" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I351" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F352" s="24"/>
       <c r="G352" s="24"/>
       <c r="H352" s="24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I352" s="24" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F353" s="24"/>
       <c r="G353" s="24"/>
       <c r="H353" s="24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I353" s="24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F354" s="24"/>
       <c r="G354" s="24"/>
       <c r="H354" s="24" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I354" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F355" s="24"/>
       <c r="G355" s="24"/>
       <c r="H355" s="24" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I355" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F356" s="24"/>
       <c r="G356" s="24"/>
       <c r="H356" s="24" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I356" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F357" s="24"/>
       <c r="G357" s="24"/>
       <c r="H357" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I357" s="24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F358" s="24"/>
       <c r="G358" s="24"/>
       <c r="H358" s="24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="I358" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F359" s="24"/>
       <c r="G359" s="24"/>
       <c r="H359" s="24" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I359" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F360" s="24"/>
       <c r="G360" s="24"/>
       <c r="H360" s="24" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I360" s="24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F361" s="24"/>
       <c r="G361" s="24"/>
       <c r="H361" s="24" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I361" s="24" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F362" s="24"/>
       <c r="G362" s="24"/>
       <c r="H362" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I362" s="24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F363" s="24"/>
       <c r="G363" s="24"/>
       <c r="H363" s="24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I363" s="24" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F364" s="24"/>
       <c r="G364" s="24"/>
       <c r="H364" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I364" s="24" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F365" s="24"/>
       <c r="G365" s="24"/>
       <c r="H365" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I365" s="24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F366" s="24"/>
       <c r="G366" s="24"/>
       <c r="H366" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I366" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F367" s="24"/>
       <c r="G367" s="24"/>
       <c r="H367" s="24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I367" s="24" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F368" s="24"/>
       <c r="G368" s="24"/>
       <c r="H368" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I368" s="24" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F369" s="24"/>
       <c r="G369" s="24"/>
       <c r="H369" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I369" s="24" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F370" s="24"/>
       <c r="G370" s="24"/>
       <c r="H370" s="24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I370" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F371" s="24"/>
       <c r="G371" s="24"/>
       <c r="H371" s="24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I371" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F372" s="24"/>
       <c r="G372" s="24"/>
       <c r="H372" s="24" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I372" s="24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F373" s="24"/>
       <c r="G373" s="24"/>
       <c r="H373" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I373" s="24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F374" s="24"/>
       <c r="G374" s="24"/>
       <c r="H374" s="24" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I374" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F375" s="24"/>
       <c r="G375" s="24"/>
       <c r="H375" s="24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I375" s="24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F376" s="24"/>
       <c r="G376" s="24"/>
       <c r="H376" s="24" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I376" s="24" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F377" s="24"/>
       <c r="G377" s="24"/>
       <c r="H377" s="24" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I377" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F378" s="24"/>
       <c r="G378" s="24"/>
       <c r="H378" s="24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I378" s="24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F379" s="24"/>
       <c r="G379" s="24"/>
       <c r="H379" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I379" s="24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F380" s="24"/>
       <c r="G380" s="24"/>
       <c r="H380" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I380" s="24" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F381" s="24"/>
       <c r="G381" s="24"/>
       <c r="H381" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F382" s="24"/>
       <c r="G382" s="24"/>
       <c r="H382" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I382" s="24" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F383" s="24"/>
       <c r="G383" s="24"/>
       <c r="H383" s="24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I383" s="24" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F384" s="24"/>
       <c r="G384" s="24"/>
       <c r="H384" s="24" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I384" s="24" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F385" s="24"/>
       <c r="G385" s="24"/>
       <c r="H385" s="24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I385" s="24" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Sample_Plate.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Sample_Plate.xlsx
@@ -2204,7 +2204,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1002"/>
+  <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2625,46 +2625,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="L12" s="14"/>
-      <c r="O12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -2675,13 +2645,13 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2689,7 +2659,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L13" s="14"/>
       <c r="O13" s="0" t="n">
@@ -2702,13 +2672,10 @@
         <v>2000</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,13 +2687,13 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2734,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="14"/>
       <c r="O14" s="0" t="n">
@@ -2750,26 +2717,55 @@
         <v>10</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L15" s="14"/>
-      <c r="Q15" s="0" t="str">
-        <f aca="false">IF(AND($O15&lt;&gt;"",$P15&lt;&gt;""), $O15*$P15, "")</f>
-        <v/>
+      <c r="O15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13"/>
@@ -6090,7 +6086,9 @@
       <c r="C223" s="13"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="I223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
       <c r="J223" s="2"/>
       <c r="L223" s="14"/>
       <c r="Q223" s="0" t="str">
@@ -10780,8 +10778,13 @@
       <c r="C558" s="13"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
-      <c r="H558" s="2"/>
+      <c r="I558" s="2"/>
       <c r="J558" s="2"/>
+      <c r="L558" s="14"/>
+      <c r="Q558" s="0" t="str">
+        <f aca="false">IF(AND($O558&lt;&gt;"",$P558&lt;&gt;""), $O558*$P558, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -10789,7 +10792,7 @@
       <c r="C559" s="13"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
-      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
       <c r="J559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14764,10 +14767,11 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
+      <c r="C1001" s="13"/>
       <c r="D1001" s="2"/>
       <c r="E1001" s="2"/>
       <c r="G1001" s="2"/>
+      <c r="J1001" s="2"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1002" s="2"/>
@@ -14777,9 +14781,17 @@
       <c r="E1002" s="2"/>
       <c r="G1002" s="2"/>
     </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="G1003" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L557" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L558" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14787,19 +14799,19 @@
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1001" type="list">
       <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1001" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1001" type="list">
       <formula1>IF($L6="384-well plate",Index!$H$2:$H$385,IF($L6="96-well plate", Index!$F$2:$F$97, Index!$H$2:$H$385))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C1001" type="list">
       <formula1>Index!$K$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
